--- a/biology/Botanique/Madame_Jean_Noël/Madame_Jean_Noël.xlsx
+++ b/biology/Botanique/Madame_Jean_Noël/Madame_Jean_Noël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Madame_Jean_No%C3%ABl</t>
+          <t>Madame_Jean_Noël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Jean Noël' est un cultivar de rosier obtenu en 1939 par le rosiériste lyonnais César Chambard[1].
+'Madame Jean Noël' est un cultivar de rosier obtenu en 1939 par le rosiériste lyonnais César Chambard.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Madame_Jean_No%C3%ABl</t>
+          <t>Madame_Jean_Noël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet hybride de thé présente de remarquables roses de couleur corail, pleines et doubles qui pâlissent au fur et à mesure. Elles possèdent des  pétales enroulés autour d'un cœur turbiné et s'ouvrent en forme réflexe. La floraison est remontante. Il nécessite une situation ensoleillée pour s'épanouir au mieux.
 Son buisson au feuillage vert clair peut s'élever à 70 cm. Il a besoin d'être taillé à la fin de l'hiver pour fleurir, et les fleurs fanées doivent être ôtées pour favoriser la remontance. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Madame_Jean_No%C3%ABl</t>
+          <t>Madame_Jean_Noël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix de la meilleure rose de France, médaille d'or 1939[2],[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix de la meilleure rose de France, médaille d'or 1939,.</t>
         </is>
       </c>
     </row>
